--- a/04.End_Cycles/Parametros Ciclos/Parametros_Ciclos.xlsx
+++ b/04.End_Cycles/Parametros Ciclos/Parametros_Ciclos.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive - Universidad de Castilla-La Mancha\JAVIER_LONDONO\RDE_Development\04.End_Cycles\Parametros Ciclos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/javierdavid_londono_uclm_es/Documents/JAVIER_LONDONO/RDE_Development/04.End_Cycles/Parametros Ciclos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C45776-273B-4DC0-83AF-41474B781D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{A7C45776-273B-4DC0-83AF-41474B781D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA8F61E-B984-49D1-B4F4-5BDBC5AE780F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,6 +117,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,11 +169,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C3" sqref="C3:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +490,7 @@
     <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -503,296 +522,306 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>6407</v>
-      </c>
-      <c r="C3">
-        <v>6558</v>
-      </c>
-      <c r="D3">
-        <v>6364</v>
+      <c r="B3" s="3">
+        <f>B2/1000</f>
+        <v>99.263496989999993</v>
+      </c>
+      <c r="C3" s="3">
+        <f>C2/1000</f>
+        <v>99.151751849999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>55.766010000000001</v>
-      </c>
-      <c r="C4">
-        <v>54.420839999999998</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6407</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6558</v>
       </c>
       <c r="D4">
-        <v>56.104590000000002</v>
+        <v>6364</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>135.76</v>
-      </c>
-      <c r="C5">
-        <v>137.16999999999999</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>55.766010000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>54.420839999999998</v>
       </c>
       <c r="D5">
-        <v>132.16999999999999</v>
+        <v>56.104590000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>135.76</v>
+      </c>
+      <c r="C6" s="2">
+        <v>137.16999999999999</v>
+      </c>
+      <c r="D6">
+        <v>132.16999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="2">
         <v>95.763000000000005</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="2">
         <v>95.795419999999993</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>94.137289999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.42276999999999998</v>
-      </c>
-      <c r="C7">
-        <v>0.37778</v>
-      </c>
-      <c r="D7">
-        <v>0.38434000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>2.5347200000000001</v>
-      </c>
-      <c r="C8">
-        <v>2.3215300000000001</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.42276999999999998</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.37778</v>
       </c>
       <c r="D8">
-        <v>2.5907399999999998</v>
+        <v>0.38434000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>2333</v>
-      </c>
-      <c r="C9">
-        <v>2129</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.5347200000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.3215300000000001</v>
       </c>
       <c r="D9">
-        <v>2136</v>
+        <v>2.5907399999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2333</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2129</v>
+      </c>
+      <c r="D10">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="2">
         <v>2367</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="2">
         <v>2147</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>2137</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="2">
         <v>4700</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="2">
         <v>4276</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>4273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0.16127</v>
-      </c>
-      <c r="C12">
-        <v>0.11545</v>
-      </c>
-      <c r="D12">
-        <v>0.12048</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>-0.37218000000000001</v>
-      </c>
-      <c r="C13">
-        <v>-0.30725000000000002</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.16127</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.11545</v>
       </c>
       <c r="D13">
-        <v>-0.33733000000000002</v>
+        <v>0.12048</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>-3.1201400000000001</v>
-      </c>
-      <c r="C14">
-        <v>-3.3277800000000002</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-0.37218000000000001</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-0.30725000000000002</v>
       </c>
       <c r="D14">
-        <v>-3.1201400000000001</v>
+        <v>-0.33733000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>7.80396</v>
-      </c>
-      <c r="C15">
-        <v>9.3931100000000001</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-3.1201400000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-3.3277800000000002</v>
       </c>
       <c r="D15">
-        <v>7.8566900000000004</v>
+        <v>-3.1201400000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>92.211640000000003</v>
-      </c>
-      <c r="C16">
-        <v>90.622140000000002</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7.80396</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9.3931100000000001</v>
       </c>
       <c r="D16">
-        <v>92.159019999999998</v>
+        <v>7.8566900000000004</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>92.211640000000003</v>
+      </c>
+      <c r="C17" s="2">
+        <v>90.622140000000002</v>
+      </c>
+      <c r="D17">
+        <v>92.159019999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="2">
         <v>19.82207</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="2">
         <v>26.349499999999999</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>25.989940000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="2">
         <v>72.389570000000006</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="2">
         <v>64.272639999999996</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>66.169079999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="2">
         <v>430.60230999999999</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="2">
         <v>422.21064999999999</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>430.60230999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B21" s="2">
         <v>4.3400000000000001E-3</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="2">
         <v>4.2599999999999999E-3</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>4.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B22" s="2">
         <v>862.83286999999996</v>
       </c>
-      <c r="C21">
+      <c r="C22" s="2">
         <v>835.90579000000002</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>862.83286999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="2">
         <v>8.6899999999999998E-3</v>
       </c>
-      <c r="C22">
+      <c r="C23" s="2">
         <v>8.43E-3</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="3">
         <v>851.45082000000002</v>
       </c>
-      <c r="C23">
+      <c r="C24" s="3">
         <v>823.98103000000003</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>850.31340999999998</v>
       </c>
     </row>
